--- a/UC4_KPIs.xlsx
+++ b/UC4_KPIs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29728"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mefgovit.sharepoint.com/sites/glaciation/Documenti condivisi/General/7. Work Package 7 - Validation and Use cases/T7.3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o.vantzos\Developer\glaciation-uc4-shoalmate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1952" documentId="8_{562391A9-04D5-4E79-9277-07DD3D7E73E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEE49BC2-7F04-48D8-9851-7419A652ACE6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F334C9E-5CA2-4BEF-8A4E-B78BFEEC4024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{A98C65B7-165D-41E1-953F-98ED71E7C7A2}"/>
+    <workbookView xWindow="13680" yWindow="0" windowWidth="15300" windowHeight="15585" firstSheet="2" activeTab="2" xr2:uid="{A98C65B7-165D-41E1-953F-98ED71E7C7A2}"/>
   </bookViews>
   <sheets>
     <sheet name="From Proposal" sheetId="3" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="310">
   <si>
     <t>WP7 Objectives</t>
   </si>
@@ -1116,9 +1116,6 @@
     <t>Given all known normal states (TN+FP), how many were flagged (FP).</t>
   </si>
   <si>
-    <t>Feasibility KPIs</t>
-  </si>
-  <si>
     <t>Data Center Instances</t>
   </si>
   <si>
@@ -1155,9 +1152,6 @@
     <t>Equivalent (roughly) to real-time analysis rate</t>
   </si>
   <si>
-    <t>Sustainability KPIs</t>
-  </si>
-  <si>
     <t>CO2 Emission Reduction</t>
   </si>
   <si>
@@ -1171,13 +1165,22 @@
   </si>
   <si>
     <t>CO2 emissions evaluated using our dataset</t>
+  </si>
+  <si>
+    <t>Business Reliability KPIs</t>
+  </si>
+  <si>
+    <t>Data Movement and Processing KPIs</t>
+  </si>
+  <si>
+    <t>Energy Efficiency KPIs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1750,6 +1753,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1767,12 +1776,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2128,7 +2131,7 @@
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
@@ -2138,57 +2141,57 @@
     <col min="6" max="6" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="14.45" customHeight="1">
-      <c r="C2" s="52" t="s">
+    <row r="2" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" customHeight="1">
-      <c r="C3" s="52"/>
-    </row>
-    <row r="4" spans="1:6" ht="22.5" customHeight="1">
-      <c r="C4" s="53" t="s">
+    <row r="3" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="54"/>
+    </row>
+    <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-    </row>
-    <row r="5" spans="1:6" ht="23.25" customHeight="1">
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-    </row>
-    <row r="6" spans="1:6" ht="23.25" customHeight="1">
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-    </row>
-    <row r="7" spans="1:6" ht="23.25" customHeight="1">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+    </row>
+    <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+    </row>
+    <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+    </row>
+    <row r="7" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="32.25" customHeight="1">
+    <row r="12" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>5</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -2204,24 +2207,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -2229,7 +2232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>13</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
@@ -2246,7 +2249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -2254,7 +2257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -2262,7 +2265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -2271,7 +2274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -2295,7 +2298,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2304,7 +2307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>31</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>33</v>
       </c>
@@ -2320,25 +2323,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>37</v>
       </c>
@@ -2346,7 +2349,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>39</v>
       </c>
@@ -2354,7 +2357,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -2363,7 +2366,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>43</v>
       </c>
@@ -2371,7 +2374,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>45</v>
       </c>
@@ -2379,7 +2382,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>47</v>
       </c>
@@ -2387,7 +2390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>49</v>
       </c>
@@ -2396,7 +2399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>51</v>
       </c>
@@ -2407,7 +2410,7 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>53</v>
       </c>
@@ -2418,54 +2421,54 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>59</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>61</v>
       </c>
@@ -2481,37 +2484,37 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>69</v>
       </c>
@@ -2519,17 +2522,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>73</v>
       </c>
@@ -2537,17 +2540,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>77</v>
       </c>
@@ -2555,12 +2558,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>80</v>
       </c>
@@ -2568,12 +2571,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="28.5" customHeight="1">
+    <row r="81" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="13" t="s">
         <v>83</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="50.1" customHeight="1">
+    <row r="82" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="11" t="s">
         <v>87</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="50.1" customHeight="1">
+    <row r="83" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="11" t="s">
         <v>91</v>
       </c>
@@ -2615,7 +2618,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="50.1" customHeight="1">
+    <row r="84" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="11" t="s">
         <v>95</v>
       </c>
@@ -2629,22 +2632,22 @@
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>102</v>
       </c>
@@ -2676,7 +2679,7 @@
       <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="4" width="20" customWidth="1"/>
@@ -2685,16 +2688,16 @@
     <col min="7" max="7" width="52.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
     </row>
-    <row r="4" spans="1:6" ht="30.75" customHeight="1">
+    <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>104</v>
       </c>
@@ -2711,7 +2714,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="41.45">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>69</v>
       </c>
@@ -2731,7 +2734,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="55.15">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="B6" s="36" t="s">
         <v>114</v>
       </c>
@@ -2748,7 +2751,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="55.15">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="B7" s="36" t="s">
         <v>119</v>
       </c>
@@ -2765,7 +2768,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="55.15">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B8" s="36" t="s">
         <v>124</v>
       </c>
@@ -2782,7 +2785,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="43.5" customHeight="1">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="36" t="s">
         <v>129</v>
       </c>
@@ -2799,7 +2802,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="60" customHeight="1">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
         <v>134</v>
       </c>
@@ -2816,7 +2819,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="43.5" customHeight="1">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="36" t="s">
         <v>138</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="43.5" customHeight="1">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="36" t="s">
         <v>142</v>
       </c>
@@ -2850,7 +2853,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="56.25" customHeight="1">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="36" t="s">
         <v>146</v>
       </c>
@@ -2867,7 +2870,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="77.25" customHeight="1">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="36" t="s">
         <v>149</v>
       </c>
@@ -2884,18 +2887,18 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1"/>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1"/>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="62.25" customHeight="1">
+    <row r="19" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
         <v>154</v>
       </c>
@@ -2910,67 +2913,67 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
-      <c r="B20" s="55" t="s">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="59" t="s">
         <v>159</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="F20" s="56"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
-      <c r="B21" s="55"/>
-      <c r="C21" s="57"/>
+      <c r="F20" s="58"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="57"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="56"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
-      <c r="B22" s="55" t="s">
+      <c r="E21" s="59"/>
+      <c r="F21" s="58"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="59" t="s">
         <v>162</v>
       </c>
       <c r="D22" s="10"/>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="56"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1">
-      <c r="B23" s="55"/>
-      <c r="C23" s="57"/>
+      <c r="F22" s="58"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="57"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="56"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
-      <c r="B24" s="55" t="s">
+      <c r="E23" s="59"/>
+      <c r="F23" s="58"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="59" t="s">
         <v>165</v>
       </c>
       <c r="D24" s="10"/>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="56"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
-      <c r="B25" s="55"/>
-      <c r="C25" s="57"/>
+      <c r="F24" s="58"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="57"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="56"/>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1">
+      <c r="E25" s="59"/>
+      <c r="F25" s="58"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="26" t="s">
         <v>167</v>
       </c>
@@ -2983,7 +2986,7 @@
       </c>
       <c r="F26" s="27"/>
     </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1">
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="28" t="s">
         <v>170</v>
       </c>
@@ -2996,7 +2999,7 @@
       </c>
       <c r="F27" s="27"/>
     </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1">
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="26" t="s">
         <v>173</v>
       </c>
@@ -3009,7 +3012,7 @@
       </c>
       <c r="F28" s="27"/>
     </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1">
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="26" t="s">
         <v>176</v>
       </c>
@@ -3022,7 +3025,7 @@
       </c>
       <c r="F29" s="27"/>
     </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1">
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="26" t="s">
         <v>179</v>
       </c>
@@ -3035,291 +3038,291 @@
       </c>
       <c r="F30" s="27"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1">
-      <c r="B31" s="55" t="s">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="59" t="s">
         <v>183</v>
       </c>
       <c r="D31" s="10"/>
-      <c r="E31" s="57" t="s">
+      <c r="E31" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="F31" s="56"/>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
-      <c r="B32" s="55"/>
-      <c r="C32" s="57"/>
+      <c r="F31" s="58"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="57"/>
+      <c r="C32" s="59"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="56"/>
-    </row>
-    <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="55" t="s">
+      <c r="E32" s="59"/>
+      <c r="F32" s="58"/>
+    </row>
+    <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="59" t="s">
         <v>186</v>
       </c>
       <c r="D33" s="10"/>
-      <c r="E33" s="57" t="s">
+      <c r="E33" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="F33" s="56"/>
-    </row>
-    <row r="34" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="55"/>
-      <c r="C34" s="57"/>
+      <c r="F33" s="58"/>
+    </row>
+    <row r="34" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="57"/>
+      <c r="C34" s="59"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="56"/>
-    </row>
-    <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="55" t="s">
+      <c r="E34" s="59"/>
+      <c r="F34" s="58"/>
+    </row>
+    <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="59" t="s">
         <v>189</v>
       </c>
       <c r="D35" s="10"/>
-      <c r="E35" s="57" t="s">
+      <c r="E35" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="F35" s="56"/>
-    </row>
-    <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="55"/>
-      <c r="C36" s="57"/>
+      <c r="F35" s="58"/>
+    </row>
+    <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="57"/>
+      <c r="C36" s="59"/>
       <c r="D36" s="10"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="56"/>
-    </row>
-    <row r="37" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B37" s="55" t="s">
+      <c r="E36" s="59"/>
+      <c r="F36" s="58"/>
+    </row>
+    <row r="37" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="59" t="s">
         <v>192</v>
       </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="57" t="s">
+      <c r="E37" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="F37" s="56"/>
-    </row>
-    <row r="38" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B38" s="55"/>
-      <c r="C38" s="57"/>
+      <c r="F37" s="58"/>
+    </row>
+    <row r="38" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="57"/>
+      <c r="C38" s="59"/>
       <c r="D38" s="10"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="56"/>
-    </row>
-    <row r="39" spans="2:6" ht="15" customHeight="1">
-      <c r="B39" s="55" t="s">
+      <c r="E38" s="59"/>
+      <c r="F38" s="58"/>
+    </row>
+    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="59" t="s">
         <v>195</v>
       </c>
       <c r="D39" s="10"/>
-      <c r="E39" s="57" t="s">
+      <c r="E39" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="F39" s="56"/>
-    </row>
-    <row r="40" spans="2:6" ht="15" customHeight="1">
-      <c r="B40" s="55"/>
-      <c r="C40" s="57"/>
+      <c r="F39" s="58"/>
+    </row>
+    <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="57"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="56"/>
-    </row>
-    <row r="41" spans="2:6" ht="15" customHeight="1">
-      <c r="B41" s="55" t="s">
+      <c r="E40" s="59"/>
+      <c r="F40" s="58"/>
+    </row>
+    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="59" t="s">
         <v>198</v>
       </c>
       <c r="D41" s="10"/>
-      <c r="E41" s="57" t="s">
+      <c r="E41" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="F41" s="56"/>
-    </row>
-    <row r="42" spans="2:6" ht="15" customHeight="1">
-      <c r="B42" s="55"/>
-      <c r="C42" s="57"/>
+      <c r="F41" s="58"/>
+    </row>
+    <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="57"/>
+      <c r="C42" s="59"/>
       <c r="D42" s="10"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="56"/>
-    </row>
-    <row r="43" spans="2:6" ht="21.95" customHeight="1">
-      <c r="B43" s="55" t="s">
+      <c r="E42" s="59"/>
+      <c r="F42" s="58"/>
+    </row>
+    <row r="43" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="59" t="s">
         <v>201</v>
       </c>
       <c r="D43" s="10"/>
-      <c r="E43" s="57" t="s">
+      <c r="E43" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="F43" s="56"/>
-    </row>
-    <row r="44" spans="2:6" ht="21.95" customHeight="1">
-      <c r="B44" s="55"/>
-      <c r="C44" s="57"/>
+      <c r="F43" s="58"/>
+    </row>
+    <row r="44" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="57"/>
+      <c r="C44" s="59"/>
       <c r="D44" s="10"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="56"/>
-    </row>
-    <row r="45" spans="2:6" ht="21.95" customHeight="1">
-      <c r="B45" s="55" t="s">
+      <c r="E44" s="59"/>
+      <c r="F44" s="58"/>
+    </row>
+    <row r="45" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="59" t="s">
         <v>204</v>
       </c>
       <c r="D45" s="10"/>
-      <c r="E45" s="57" t="s">
+      <c r="E45" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="F45" s="56"/>
-    </row>
-    <row r="46" spans="2:6" ht="21.95" customHeight="1">
-      <c r="B46" s="55"/>
-      <c r="C46" s="57"/>
+      <c r="F45" s="58"/>
+    </row>
+    <row r="46" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="57"/>
+      <c r="C46" s="59"/>
       <c r="D46" s="10"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="56"/>
-    </row>
-    <row r="47" spans="2:6" ht="21.95" customHeight="1">
-      <c r="B47" s="55" t="s">
+      <c r="E46" s="59"/>
+      <c r="F46" s="58"/>
+    </row>
+    <row r="47" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="59" t="s">
         <v>207</v>
       </c>
       <c r="D47" s="10"/>
-      <c r="E47" s="57" t="s">
+      <c r="E47" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="F47" s="56"/>
-    </row>
-    <row r="48" spans="2:6" ht="21.95" customHeight="1">
-      <c r="B48" s="55"/>
-      <c r="C48" s="57"/>
+      <c r="F47" s="58"/>
+    </row>
+    <row r="48" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="57"/>
+      <c r="C48" s="59"/>
       <c r="D48" s="10"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="56"/>
-    </row>
-    <row r="49" spans="2:6" ht="21.95" customHeight="1">
-      <c r="B49" s="55" t="s">
+      <c r="E48" s="59"/>
+      <c r="F48" s="58"/>
+    </row>
+    <row r="49" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="59" t="s">
         <v>210</v>
       </c>
       <c r="D49" s="10"/>
-      <c r="E49" s="57" t="s">
+      <c r="E49" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="F49" s="56" t="s">
+      <c r="F49" s="58" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="69.75" customHeight="1">
-      <c r="B50" s="55"/>
-      <c r="C50" s="57"/>
+    <row r="50" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="57"/>
+      <c r="C50" s="59"/>
       <c r="D50" s="10"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="56"/>
-    </row>
-    <row r="51" spans="2:6" ht="21.95" customHeight="1">
-      <c r="B51" s="55" t="s">
+      <c r="E50" s="59"/>
+      <c r="F50" s="58"/>
+    </row>
+    <row r="51" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="C51" s="57" t="s">
+      <c r="C51" s="59" t="s">
         <v>214</v>
       </c>
       <c r="D51" s="10"/>
-      <c r="E51" s="57" t="s">
+      <c r="E51" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="F51" s="56" t="s">
+      <c r="F51" s="58" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="21.95" customHeight="1">
-      <c r="B52" s="55"/>
-      <c r="C52" s="57"/>
+    <row r="52" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="57"/>
+      <c r="C52" s="59"/>
       <c r="D52" s="10"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="56"/>
-    </row>
-    <row r="53" spans="2:6" ht="21.95" customHeight="1">
-      <c r="B53" s="55" t="s">
+      <c r="E52" s="59"/>
+      <c r="F52" s="58"/>
+    </row>
+    <row r="53" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="C53" s="57" t="s">
+      <c r="C53" s="59" t="s">
         <v>218</v>
       </c>
       <c r="D53" s="10"/>
-      <c r="E53" s="57" t="s">
+      <c r="E53" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="F53" s="56"/>
-    </row>
-    <row r="54" spans="2:6" ht="21.95" customHeight="1">
-      <c r="B54" s="55"/>
-      <c r="C54" s="57"/>
+      <c r="F53" s="58"/>
+    </row>
+    <row r="54" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="57"/>
+      <c r="C54" s="59"/>
       <c r="D54" s="10"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="56"/>
-    </row>
-    <row r="55" spans="2:6" ht="15" customHeight="1">
-      <c r="B55" s="55" t="s">
+      <c r="E54" s="59"/>
+      <c r="F54" s="58"/>
+    </row>
+    <row r="55" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="C55" s="57" t="s">
+      <c r="C55" s="59" t="s">
         <v>221</v>
       </c>
       <c r="D55" s="10"/>
-      <c r="E55" s="57" t="s">
+      <c r="E55" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="F55" s="56"/>
-    </row>
-    <row r="56" spans="2:6" ht="15" customHeight="1">
-      <c r="B56" s="55"/>
-      <c r="C56" s="57"/>
+      <c r="F55" s="58"/>
+    </row>
+    <row r="56" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="57"/>
+      <c r="C56" s="59"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="56"/>
-    </row>
-    <row r="57" spans="2:6" ht="15" customHeight="1">
-      <c r="B57" s="55" t="s">
+      <c r="E56" s="59"/>
+      <c r="F56" s="58"/>
+    </row>
+    <row r="57" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="C57" s="57" t="s">
+      <c r="C57" s="59" t="s">
         <v>224</v>
       </c>
       <c r="D57" s="10"/>
-      <c r="E57" s="57" t="s">
+      <c r="E57" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="F57" s="56"/>
-    </row>
-    <row r="58" spans="2:6" ht="15" customHeight="1">
-      <c r="B58" s="55"/>
-      <c r="C58" s="57"/>
+      <c r="F57" s="58"/>
+    </row>
+    <row r="58" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="57"/>
+      <c r="C58" s="59"/>
       <c r="D58" s="10"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="56"/>
-    </row>
-    <row r="59" spans="2:6" ht="52.9">
+      <c r="E58" s="59"/>
+      <c r="F58" s="58"/>
+    </row>
+    <row r="59" spans="2:6" ht="51" x14ac:dyDescent="0.25">
       <c r="B59" s="26" t="s">
         <v>226</v>
       </c>
@@ -3334,147 +3337,147 @@
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="21.95" customHeight="1">
-      <c r="B60" s="55" t="s">
+    <row r="60" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="C60" s="57" t="s">
+      <c r="C60" s="59" t="s">
         <v>231</v>
       </c>
       <c r="D60" s="10"/>
-      <c r="E60" s="57" t="s">
+      <c r="E60" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="F60" s="56"/>
-    </row>
-    <row r="61" spans="2:6" ht="21.95" customHeight="1">
-      <c r="B61" s="55"/>
-      <c r="C61" s="57"/>
+      <c r="F60" s="58"/>
+    </row>
+    <row r="61" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="57"/>
+      <c r="C61" s="59"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="56"/>
-    </row>
-    <row r="62" spans="2:6" ht="21.95" customHeight="1">
-      <c r="B62" s="55" t="s">
+      <c r="E61" s="59"/>
+      <c r="F61" s="58"/>
+    </row>
+    <row r="62" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="C62" s="57" t="s">
+      <c r="C62" s="59" t="s">
         <v>234</v>
       </c>
       <c r="D62" s="10"/>
-      <c r="E62" s="57" t="s">
+      <c r="E62" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="F62" s="56"/>
-    </row>
-    <row r="63" spans="2:6" ht="21.95" customHeight="1">
-      <c r="B63" s="55"/>
-      <c r="C63" s="57"/>
+      <c r="F62" s="58"/>
+    </row>
+    <row r="63" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="57"/>
+      <c r="C63" s="59"/>
       <c r="D63" s="10"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="56"/>
-    </row>
-    <row r="64" spans="2:6" ht="15" customHeight="1">
-      <c r="B64" s="55" t="s">
+      <c r="E63" s="59"/>
+      <c r="F63" s="58"/>
+    </row>
+    <row r="64" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="C64" s="57" t="s">
+      <c r="C64" s="59" t="s">
         <v>237</v>
       </c>
       <c r="D64" s="10"/>
-      <c r="E64" s="57" t="s">
+      <c r="E64" s="59" t="s">
         <v>238</v>
       </c>
-      <c r="F64" s="56"/>
-    </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1">
-      <c r="B65" s="55"/>
-      <c r="C65" s="57"/>
+      <c r="F64" s="58"/>
+    </row>
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="57"/>
+      <c r="C65" s="59"/>
       <c r="D65" s="10"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="56"/>
-    </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1">
-      <c r="B66" s="55" t="s">
+      <c r="E65" s="59"/>
+      <c r="F65" s="58"/>
+    </row>
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="C66" s="57" t="s">
+      <c r="C66" s="59" t="s">
         <v>240</v>
       </c>
       <c r="D66" s="10"/>
-      <c r="E66" s="57" t="s">
+      <c r="E66" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="F66" s="56"/>
-    </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1">
-      <c r="B67" s="55"/>
-      <c r="C67" s="57"/>
+      <c r="F66" s="58"/>
+    </row>
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="57"/>
+      <c r="C67" s="59"/>
       <c r="D67" s="10"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="56"/>
-    </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1">
-      <c r="B68" s="55" t="s">
+      <c r="E67" s="59"/>
+      <c r="F67" s="58"/>
+    </row>
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="C68" s="57" t="s">
+      <c r="C68" s="59" t="s">
         <v>243</v>
       </c>
       <c r="D68" s="10"/>
-      <c r="E68" s="57" t="s">
+      <c r="E68" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="F68" s="56"/>
-    </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1">
-      <c r="B69" s="55"/>
-      <c r="C69" s="57"/>
+      <c r="F68" s="58"/>
+    </row>
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="57"/>
+      <c r="C69" s="59"/>
       <c r="D69" s="10"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="56"/>
-    </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1">
-      <c r="B70" s="55" t="s">
+      <c r="E69" s="59"/>
+      <c r="F69" s="58"/>
+    </row>
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="C70" s="57" t="s">
+      <c r="C70" s="59" t="s">
         <v>246</v>
       </c>
       <c r="D70" s="10"/>
-      <c r="E70" s="57" t="s">
+      <c r="E70" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="F70" s="56"/>
-    </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1">
-      <c r="B71" s="55"/>
-      <c r="C71" s="57"/>
+      <c r="F70" s="58"/>
+    </row>
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="57"/>
+      <c r="C71" s="59"/>
       <c r="D71" s="10"/>
-      <c r="E71" s="57"/>
-      <c r="F71" s="56"/>
-    </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1">
-      <c r="B72" s="55" t="s">
+      <c r="E71" s="59"/>
+      <c r="F71" s="58"/>
+    </row>
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="C72" s="57" t="s">
+      <c r="C72" s="59" t="s">
         <v>248</v>
       </c>
       <c r="D72" s="10"/>
-      <c r="E72" s="57" t="s">
+      <c r="E72" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="F72" s="56"/>
-    </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1">
-      <c r="B73" s="55"/>
-      <c r="C73" s="57"/>
+      <c r="F72" s="58"/>
+    </row>
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="57"/>
+      <c r="C73" s="59"/>
       <c r="D73" s="10"/>
-      <c r="E73" s="57"/>
-      <c r="F73" s="56"/>
-    </row>
-    <row r="74" spans="1:6" ht="39" customHeight="1">
+      <c r="E73" s="59"/>
+      <c r="F73" s="58"/>
+    </row>
+    <row r="74" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="29" t="s">
         <v>250</v>
       </c>
@@ -3487,29 +3490,29 @@
       </c>
       <c r="F74" s="31"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B75" s="9"/>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1"/>
-    <row r="77" spans="1:6" ht="15" customHeight="1"/>
-    <row r="78" spans="1:6" ht="15" customHeight="1"/>
-    <row r="79" spans="1:6" ht="15" customHeight="1">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1"/>
-    <row r="81" spans="1:6" ht="15" customHeight="1"/>
-    <row r="82" spans="1:6" ht="15" customHeight="1"/>
-    <row r="83" spans="1:6" ht="15" customHeight="1"/>
-    <row r="84" spans="1:6" ht="15" customHeight="1"/>
-    <row r="85" spans="1:6" ht="15" customHeight="1"/>
-    <row r="86" spans="1:6" ht="15" customHeight="1">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="55.15">
+    <row r="89" spans="1:6" ht="57" x14ac:dyDescent="0.25">
       <c r="B89" s="36" t="s">
         <v>252</v>
       </c>
@@ -3526,7 +3529,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="55.15">
+    <row r="90" spans="1:6" ht="57" x14ac:dyDescent="0.25">
       <c r="B90" s="36" t="s">
         <v>253</v>
       </c>
@@ -3543,7 +3546,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="55.15">
+    <row r="91" spans="1:6" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B91" s="36" t="s">
         <v>254</v>
       </c>
@@ -3560,7 +3563,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="27.6">
+    <row r="92" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B92" s="36" t="s">
         <v>255</v>
       </c>
@@ -3577,7 +3580,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="41.45">
+    <row r="93" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B93" s="36" t="s">
         <v>256</v>
       </c>
@@ -3594,7 +3597,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="89.25" customHeight="1">
+    <row r="94" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="36" t="s">
         <v>257</v>
       </c>
@@ -3611,7 +3614,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="63" customHeight="1">
+    <row r="95" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="36" t="s">
         <v>260</v>
       </c>
@@ -3630,6 +3633,90 @@
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E33:E34"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="C20:C21"/>
@@ -3642,90 +3729,6 @@
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="E70:E71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -3739,10 +3742,10 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="58.7109375" customWidth="1"/>
@@ -3752,7 +3755,7 @@
     <col min="7" max="21" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="22.5" customHeight="1">
+    <row r="1" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33"/>
       <c r="B1" s="34" t="s">
         <v>263</v>
@@ -3762,7 +3765,7 @@
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
     </row>
-    <row r="2" spans="1:21" ht="22.5" customHeight="1">
+    <row r="2" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -3770,7 +3773,7 @@
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:21" ht="22.5" customHeight="1">
+    <row r="3" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -3778,7 +3781,7 @@
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
     </row>
-    <row r="4" spans="1:21" ht="27.75" customHeight="1">
+    <row r="4" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
       <c r="B4" s="7" t="s">
         <v>264</v>
@@ -3795,25 +3798,25 @@
       <c r="F4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-    </row>
-    <row r="5" spans="1:21" ht="22.5" customHeight="1">
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+    </row>
+    <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G5" s="50" t="s">
         <v>268</v>
       </c>
@@ -3860,7 +3863,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="22.5" hidden="1" customHeight="1">
+    <row r="6" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>283</v>
       </c>
@@ -3868,7 +3871,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:21" ht="22.5" hidden="1" customHeight="1">
+    <row r="7" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>284</v>
       </c>
@@ -3882,7 +3885,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="22.5" hidden="1" customHeight="1">
+    <row r="8" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
         <v>287</v>
       </c>
@@ -3896,93 +3899,102 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="22.5" customHeight="1">
+    <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="46" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="1:21" ht="22.5" customHeight="1">
+    <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" t="s">
         <v>291</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>292</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>293</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="U11" s="51"/>
+    </row>
+    <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="U11" s="51"/>
-    </row>
-    <row r="12" spans="1:21" ht="22.5" customHeight="1">
-      <c r="B12" s="41" t="s">
+      <c r="C12" t="s">
         <v>296</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>297</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="U12" s="51"/>
+    </row>
+    <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+    </row>
+    <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="E12" t="s">
-        <v>294</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="U12" s="51"/>
-    </row>
-    <row r="13" spans="1:21" ht="22.5" customHeight="1">
-      <c r="B13" s="43" t="s">
+      <c r="C14" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="D14" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="E14" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="E13" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="U13" s="51"/>
-    </row>
-    <row r="15" spans="1:21" ht="22.5" customHeight="1">
+      <c r="U14" s="51"/>
+    </row>
+    <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="46" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
       <c r="E15" s="47"/>
       <c r="F15" s="48"/>
     </row>
-    <row r="16" spans="1:21" ht="22.5" customHeight="1">
+    <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="D16" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="E16" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="F16" s="45" t="s">
         <v>306</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>307</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>308</v>
       </c>
       <c r="U16" s="51"/>
     </row>
@@ -3999,6 +4011,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5e884b80-f82b-4487-bc76-a4f46140e91f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cebb5a04-f4fa-45b5-bfc7-4f29c5a77083">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010037C996546B721047AC306210F56DFE76" ma:contentTypeVersion="16" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="7019be02e39974b7d7220012a4395f64">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cebb5a04-f4fa-45b5-bfc7-4f29c5a77083" xmlns:ns3="5e884b80-f82b-4487-bc76-a4f46140e91f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="acf49b158ff560433ce502b7605146e2" ns2:_="" ns3:_="">
     <xsd:import namespace="cebb5a04-f4fa-45b5-bfc7-4f29c5a77083"/>
@@ -4239,34 +4271,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5e884b80-f82b-4487-bc76-a4f46140e91f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cebb5a04-f4fa-45b5-bfc7-4f29c5a77083">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB036E5C-780C-4C45-93BF-39D5F2D91105}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{850ED4EC-3A53-4BA0-A0B2-ACB4E4BC6A85}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C6656D5-E04A-4314-A26F-C8902301C412}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C6656D5-E04A-4314-A26F-C8902301C412}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5e884b80-f82b-4487-bc76-a4f46140e91f"/>
+    <ds:schemaRef ds:uri="cebb5a04-f4fa-45b5-bfc7-4f29c5a77083"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{850ED4EC-3A53-4BA0-A0B2-ACB4E4BC6A85}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB036E5C-780C-4C45-93BF-39D5F2D91105}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cebb5a04-f4fa-45b5-bfc7-4f29c5a77083"/>
+    <ds:schemaRef ds:uri="5e884b80-f82b-4487-bc76-a4f46140e91f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>